--- a/docs/05测试进度/08-用例执行进度v1.0_电子零售会员_v1.0.xlsx
+++ b/docs/05测试进度/08-用例执行进度v1.0_电子零售会员_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20400" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订说明" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>用例执行进度跟踪模板</t>
   </si>
@@ -140,37 +140,19 @@
     <t>未开始</t>
   </si>
   <si>
-    <t>勾学超</t>
-  </si>
-  <si>
     <t>模块2</t>
   </si>
   <si>
-    <t>王凡</t>
-  </si>
-  <si>
     <t>模块3</t>
   </si>
   <si>
-    <t>郑阳阳</t>
-  </si>
-  <si>
     <t>模块4</t>
   </si>
   <si>
-    <t>鲍春旭</t>
-  </si>
-  <si>
     <t>模块5</t>
   </si>
   <si>
-    <t>高艳云</t>
-  </si>
-  <si>
     <t>模块6</t>
-  </si>
-  <si>
-    <t>朱敬慈</t>
   </si>
   <si>
     <t>总体进度</t>
@@ -205,17 +187,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,13 +216,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -285,28 +260,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,7 +343,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -329,7 +351,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +373,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -372,70 +402,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,85 +436,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,96 +611,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,6 +878,47 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,6 +938,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -949,228 +979,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1178,28 +1140,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,22 +1183,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,65 +1208,65 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1989,7 +1951,7 @@
   <dimension ref="A2:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2062,240 +2024,228 @@
       <c r="B3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="16">
-        <f>D3-F3-G3</f>
+        <f t="shared" ref="H3:H8" si="0">D3-F3-G3</f>
         <v>0</v>
       </c>
       <c r="I3" s="21">
-        <f>IFERROR(E3/D3,0)</f>
+        <f t="shared" ref="I3:I9" si="1">IFERROR(E3/D3,0)</f>
         <v>0</v>
       </c>
       <c r="J3" s="21">
-        <f>IFERROR(F3/E3,0)</f>
+        <f t="shared" ref="J3:J9" si="2">IFERROR(F3/E3,0)</f>
         <v>0</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
       <c r="N3" s="24">
-        <f>IFERROR(E3/(L3+M3),0)</f>
+        <f t="shared" ref="N3:N8" si="3">IFERROR(E3/(L3+M3),0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="25" t="str">
-        <f>IFERROR(H3/N3,"")</f>
+        <f t="shared" ref="O3:O9" si="4">IFERROR(H3/N3,"")</f>
         <v/>
       </c>
       <c r="P3" s="26"/>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:16">
       <c r="A4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16">
-        <f>D4-F4-G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="21">
-        <f>IFERROR(E4/D4,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f>IFERROR(F4/E4,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
       <c r="N4" s="24">
-        <f>IFERROR(E4/(L4+M4),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O4" s="25" t="str">
-        <f>IFERROR(H4/N4,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P4" s="27"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:16">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>IF(I5=0%,"未开始",IF(I5=1,"已完成","进行中"))</f>
         <v>未开始</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="16">
-        <f>D5-F5-G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="21">
-        <f>IFERROR(E5/D5,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="21">
-        <f>IFERROR(F5/E5,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="23"/>
       <c r="M5" s="23"/>
       <c r="N5" s="24">
-        <f>IFERROR(E5/(L5+M5),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O5" s="25" t="str">
-        <f>IFERROR(H5/N5,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P5" s="27"/>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:16">
       <c r="A6" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="15" t="str">
         <f>IF(I6=0%,"未开始",IF(I6=1,"已完成","进行中"))</f>
         <v>未开始</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16">
-        <f>D6-F6-G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="21">
-        <f>IFERROR(E6/D6,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="21">
-        <f>IFERROR(F6/E6,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="24">
-        <f>IFERROR(E6/(L6+M6),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O6" s="25" t="str">
-        <f>IFERROR(H6/N6,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P6" s="27"/>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:16">
       <c r="A7" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="15" t="str">
         <f>IF(I7=0%,"未开始",IF(I7=1,"已完成","进行中"))</f>
         <v>未开始</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16">
-        <f>D7-F7-G7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="21">
-        <f>IFERROR(E7/D7,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="21">
-        <f>IFERROR(F7/E7,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
       <c r="N7" s="24">
-        <f>IFERROR(E7/(L7+M7),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="25" t="str">
-        <f>IFERROR(H7/N7,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P7" s="27"/>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:16">
       <c r="A8" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8" s="15" t="str">
         <f>IF(I8=0%,"未开始",IF(I8=1,"已完成","进行中"))</f>
         <v>未开始</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16">
-        <f>D8-F8-G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="21">
-        <f>IFERROR(E8/D8,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="21">
-        <f>IFERROR(F8/E8,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="24">
-        <f>IFERROR(E8/(L8+M8),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="25" t="str">
-        <f>IFERROR(H8/N8,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B9" s="18" t="str">
         <f>IF(I9=0%,"未开始",IF(I9=1,"已完成","进行中"))</f>
@@ -2323,11 +2273,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f>IFERROR(E9/D9,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="28">
-        <f>IFERROR(F9/E9,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="19">
@@ -2347,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="29" t="str">
-        <f>IFERROR(H9/N9,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P9" s="30"/>
@@ -2399,7 +2349,7 @@
     </row>
     <row r="3" spans="3:4">
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2408,19 +2358,19 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2429,10 +2379,10 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D6" s="9" t="e">
         <f>E6/F6</f>
@@ -2454,7 +2404,7 @@
     <row r="7" ht="15" spans="2:6">
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9" t="e">
         <f>E7/F7</f>
